--- a/Hearts.xlsx
+++ b/Hearts.xlsx
@@ -431,10 +431,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F3:F12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -446,16 +446,16 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>1</v>
+        <v>1212</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
@@ -463,7 +463,7 @@
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="2" t="n">
-        <v>2</v>
+        <v>1212</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>2</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="n"/>
       <c r="F2" s="3" t="n"/>
@@ -480,7 +480,7 @@
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>3</v>
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="n"/>
       <c r="F3" s="3" t="n"/>
@@ -497,7 +497,7 @@
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>4</v>
@@ -506,14 +506,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="n"/>
       <c r="F4" s="3" t="n"/>
       <c r="G4" s="3" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="n"/>
+      <c r="A5" s="3" t="n">
+        <v>1212</v>
+      </c>
       <c r="B5" s="4" t="n"/>
       <c r="C5" s="3" t="n"/>
       <c r="D5" s="3" t="n"/>
@@ -522,7 +524,9 @@
       <c r="G5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
+      <c r="A6" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="3" t="n"/>
       <c r="D6" s="3" t="n"/>
@@ -531,7 +535,9 @@
       <c r="G6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
+      <c r="A7" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="n"/>
@@ -540,7 +546,9 @@
       <c r="G7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
+      <c r="A8" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="3" t="n"/>
       <c r="D8" s="3" t="n"/>
@@ -549,7 +557,9 @@
       <c r="G8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
+      <c r="A9" s="3" t="n">
+        <v>12</v>
+      </c>
       <c r="B9" s="2" t="n"/>
       <c r="C9" s="3" t="n"/>
       <c r="D9" s="3" t="n"/>
@@ -558,7 +568,9 @@
       <c r="G9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
+      <c r="A10" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="3" t="n"/>
       <c r="D10" s="3" t="n"/>
@@ -567,7 +579,9 @@
       <c r="G10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
+      <c r="A11" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="3" t="n"/>
@@ -576,7 +590,9 @@
       <c r="G11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
+      <c r="A12" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="3" t="n"/>
       <c r="D12" s="3" t="n"/>
@@ -585,7 +601,9 @@
       <c r="G12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
+      <c r="A13" s="3" t="n">
+        <v>12</v>
+      </c>
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="n"/>
@@ -594,7 +612,9 @@
       <c r="G13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
+      <c r="A14" s="3" t="n">
+        <v>4</v>
+      </c>
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="3" t="n"/>
       <c r="D14" s="3" t="n"/>
@@ -603,7 +623,9 @@
       <c r="G14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
+      <c r="A15" s="3" t="n">
+        <v>4</v>
+      </c>
       <c r="B15" s="2" t="n"/>
       <c r="C15" s="3" t="n"/>
       <c r="D15" s="3" t="n"/>
@@ -612,7 +634,9 @@
       <c r="G15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
+      <c r="A16" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="3" t="n"/>
       <c r="D16" s="3" t="n"/>
@@ -621,7 +645,9 @@
       <c r="G16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n"/>
+      <c r="A17" s="3" t="n">
+        <v>20</v>
+      </c>
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="3" t="n"/>
       <c r="D17" s="3" t="n"/>
@@ -656,6 +682,61 @@
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hearts.xlsx
+++ b/Hearts.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13548" yWindow="1716" windowWidth="14892" windowHeight="12120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -58,13 +64,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -147,10 +165,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -188,71 +206,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -280,7 +298,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -303,11 +321,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -316,13 +334,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -332,7 +350,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -341,7 +359,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -350,7 +368,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -358,10 +376,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -431,311 +449,234 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" min="3" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>1212</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
+      <c r="A1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="n">
-        <v>1212</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="n">
-        <v>1212</v>
-      </c>
+      <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="3" t="n"/>
       <c r="B5" s="4" t="n"/>
       <c r="C5" s="3" t="n"/>
       <c r="D5" s="3" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="1" t="n"/>
       <c r="C6" s="3" t="n"/>
       <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="1" t="n"/>
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="1" t="n"/>
       <c r="C8" s="3" t="n"/>
       <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="1" t="n"/>
       <c r="C9" s="3" t="n"/>
       <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="1" t="n"/>
       <c r="C10" s="3" t="n"/>
       <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="1" t="n"/>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="1" t="n"/>
       <c r="C12" s="3" t="n"/>
       <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="1" t="n"/>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="1" t="n"/>
       <c r="C14" s="3" t="n"/>
       <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="1" t="n"/>
       <c r="C15" s="3" t="n"/>
       <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="1" t="n"/>
       <c r="C16" s="3" t="n"/>
       <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="1" t="n"/>
       <c r="C17" s="3" t="n"/>
       <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-    </row>
-    <row r="18">
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
       <c r="A18" s="3" t="n"/>
-      <c r="B18" s="2" t="n"/>
+      <c r="B18" s="1" t="n"/>
       <c r="C18" s="3" t="n"/>
       <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
-    </row>
-    <row r="19">
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
       <c r="A19" s="3" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="B19" s="1" t="n"/>
       <c r="C19" s="3" t="n"/>
       <c r="D19" s="3" t="n"/>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
-    </row>
-    <row r="20">
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
       <c r="A20" s="3" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="B20" s="1" t="n"/>
       <c r="C20" s="3" t="n"/>
       <c r="D20" s="3" t="n"/>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
